--- a/MOM-Marvick.xlsx
+++ b/MOM-Marvick.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E10F25-06B3-4FDE-823D-155A1E26B20D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1F184E-C9A8-4D9A-9779-F70D1C62E30A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="03-10-2021" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
   <si>
     <t>Sr.NO.</t>
   </si>
@@ -168,9 +168,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -178,6 +175,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,26 +478,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -509,25 +509,25 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -544,11 +544,11 @@
       <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>44472</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>44473</v>
       </c>
     </row>
@@ -565,11 +565,11 @@
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>44472</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>44473</v>
       </c>
     </row>
@@ -586,11 +586,11 @@
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>44472</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>44473</v>
       </c>
     </row>
@@ -607,11 +607,11 @@
       <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>44472</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>44473</v>
       </c>
     </row>
@@ -628,11 +628,11 @@
       <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>44472</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>44473</v>
       </c>
     </row>
@@ -649,11 +649,11 @@
       <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>44472</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>44473</v>
       </c>
     </row>
@@ -670,11 +670,11 @@
       <c r="D11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>44472</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>44473</v>
       </c>
     </row>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D377FDB-F9ED-49C5-AB9D-9A56A8AF5A05}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,26 +708,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -736,19 +736,19 @@
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -759,11 +759,19 @@
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="4">
+        <v>44472</v>
+      </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="4">
+        <v>44473</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -772,11 +780,19 @@
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4">
+        <v>44472</v>
+      </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="4">
+        <v>44473</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -785,11 +801,19 @@
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4">
+        <v>44472</v>
+      </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="4">
+        <v>44473</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -798,11 +822,19 @@
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4">
+        <v>44472</v>
+      </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="4">
+        <v>44473</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -811,11 +843,19 @@
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4">
+        <v>44472</v>
+      </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="4">
+        <v>44473</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -824,11 +864,19 @@
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4">
+        <v>44472</v>
+      </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="4">
+        <v>44473</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -837,11 +885,19 @@
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="4">
+        <v>44472</v>
+      </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="4">
+        <v>44473</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
